--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="2460" windowWidth="26960" windowHeight="15940" activeTab="2"/>
+    <workbookView xWindow="2720" yWindow="340" windowWidth="28340" windowHeight="15940" tabRatio="745" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="basic_demog" sheetId="8" r:id="rId7"/>
     <sheet name="demog_continued" sheetId="9" r:id="rId8"/>
+    <sheet name="female_questions" sheetId="10" r:id="rId9"/>
+    <sheet name="reproductive_history" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
   <si>
     <t>type</t>
   </si>
@@ -166,9 +168,6 @@
     <t>education_years</t>
   </si>
   <si>
-    <t>occupation</t>
-  </si>
-  <si>
     <t>birthplace</t>
   </si>
   <si>
@@ -202,27 +201,6 @@
     <t>Widowed</t>
   </si>
   <si>
-    <t>custom_member_choices</t>
-  </si>
-  <si>
-    <t>tokatoka</t>
-  </si>
-  <si>
-    <t>Tokatoka</t>
-  </si>
-  <si>
-    <t>mataqali</t>
-  </si>
-  <si>
-    <t>Mataqali</t>
-  </si>
-  <si>
-    <t>yavusa</t>
-  </si>
-  <si>
-    <t>Yavusa</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -244,9 +222,6 @@
     <t>(data('first_name') + '_' + data('last_name'))</t>
   </si>
   <si>
-    <t>select_one_with_other</t>
-  </si>
-  <si>
     <t>What is {{data.first_name}}'s relation to the head of the household?</t>
   </si>
   <si>
@@ -256,15 +231,9 @@
     <t>What is {{data.first_name}}'s marital status?</t>
   </si>
   <si>
-    <t>What is {{data.first_name}}'s customary membership?</t>
-  </si>
-  <si>
     <t>How many years of education has {{data:first_name}} had?</t>
   </si>
   <si>
-    <t>What is {{data.first_name}}'s current occupation?</t>
-  </si>
-  <si>
     <t>Where was {{data.first_name}} born?</t>
   </si>
   <si>
@@ -392,6 +361,72 @@
   </si>
   <si>
     <t>Separated</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>data('age') &gt;=18</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 5</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 18</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>data('relation_to_head') != 'son_daughter'</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 15</t>
+  </si>
+  <si>
+    <t>has_children</t>
+  </si>
+  <si>
+    <t>Does {{data:first_name}} have any children?</t>
+  </si>
+  <si>
+    <t>data('has_children') == 'yes'</t>
+  </si>
+  <si>
+    <t>do section reproductive_history</t>
+  </si>
+  <si>
+    <t>You have kids!!!</t>
+  </si>
+  <si>
+    <t>female_questions</t>
+  </si>
+  <si>
+    <t>Female Only Questions</t>
+  </si>
+  <si>
+    <t>reproductive_history</t>
+  </si>
+  <si>
+    <t>Reproductive History</t>
+  </si>
+  <si>
+    <t>basic demog</t>
+  </si>
+  <si>
+    <t>( data('sex') == 'female' ) &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
+  </si>
+  <si>
+    <t>(data('sex') == 'female') &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
   </si>
 </sst>
 </file>
@@ -434,7 +469,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +512,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -544,8 +597,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,8 +741,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -661,8 +836,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="88">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -689,6 +907,23 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -715,6 +950,23 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
   </cellStyles>
@@ -1054,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1102,91 +1354,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" customHeight="1">
+    <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="37" customHeight="1">
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37" customHeight="1">
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>78</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="37" customHeight="1">
-      <c r="C5" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="37" customHeight="1">
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="62.5" customHeight="1"/>
-    <row r="7" spans="1:8" ht="42" customHeight="1"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="62.5" customHeight="1">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1">
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1202,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1280,13 +1618,13 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
@@ -1295,13 +1633,13 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
@@ -1310,13 +1648,13 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -1325,13 +1663,13 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -1340,13 +1678,13 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
@@ -1355,13 +1693,13 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -1370,13 +1708,13 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -1385,13 +1723,13 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -1400,13 +1738,13 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -1415,13 +1753,13 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
@@ -1430,13 +1768,13 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
@@ -1445,13 +1783,13 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -1460,13 +1798,13 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
@@ -1475,13 +1813,13 @@
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
@@ -1499,13 +1837,13 @@
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1514,13 +1852,13 @@
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1529,13 +1867,13 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1544,24 +1882,24 @@
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
@@ -1570,37 +1908,19 @@
       <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>62</v>
-      </c>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,15 +1935,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
@@ -1663,39 +1981,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1711,147 +2045,164 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,17 +2257,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>33</v>
@@ -1943,76 +2297,84 @@
     <row r="2" spans="1:8">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="24">
-      <c r="C3" s="11" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" t="s">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24">
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24">
+    <row r="5" spans="1:8">
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="14" t="s">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>69</v>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2028,153 +2390,429 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" customHeight="1">
+    <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31" customHeight="1">
+    <row r="2" spans="1:10" ht="31" customHeight="1">
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>58</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1">
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="57" customHeight="1">
       <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="31" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" customHeight="1">
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" ht="31" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" ht="31" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" ht="31" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="31" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="31" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="31" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" ht="31" customHeight="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" ht="31" customHeight="1">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="31" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" ht="31" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="31" customHeight="1">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31" customHeight="1">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31" customHeight="1">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31" customHeight="1">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="31" customHeight="1">
+      <c r="D26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31" customHeight="1">
-      <c r="B9" t="s">
+      <c r="G26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31" customHeight="1">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31" customHeight="1">
-      <c r="C12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31" customHeight="1">
-      <c r="B13" t="s">
-        <v>69</v>
+    <row r="27" spans="1:10" ht="31" customHeight="1">
+      <c r="B27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="56" customHeight="1">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="340" windowWidth="28340" windowHeight="15940" tabRatio="745" activeTab="7"/>
+    <workbookView xWindow="2400" yWindow="560" windowWidth="28340" windowHeight="15960" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="basic_demog" sheetId="8" r:id="rId7"/>
     <sheet name="demog_continued" sheetId="9" r:id="rId8"/>
     <sheet name="female_questions" sheetId="10" r:id="rId9"/>
-    <sheet name="reproductive_history" sheetId="11" r:id="rId10"/>
+    <sheet name="queries" sheetId="12" r:id="rId10"/>
+    <sheet name="reproductive_history" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
   <si>
     <t>type</t>
   </si>
@@ -402,31 +403,94 @@
     <t>data('has_children') == 'yes'</t>
   </si>
   <si>
+    <t>female_questions</t>
+  </si>
+  <si>
+    <t>Female Only Questions</t>
+  </si>
+  <si>
+    <t>reproductive_history</t>
+  </si>
+  <si>
+    <t>Reproductive History</t>
+  </si>
+  <si>
+    <t>basic demog</t>
+  </si>
+  <si>
+    <t>( data('sex') == 'female' ) &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
+  </si>
+  <si>
+    <t>(data('sex') == 'female') &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
+  </si>
+  <si>
+    <t>Start with the first born.</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>linked_reproductive_history</t>
+  </si>
+  <si>
+    <t>Reproductive History:: BRANCHING TEST</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[ data('name') ]</t>
+  </si>
+  <si>
     <t>do section reproductive_history</t>
   </si>
   <si>
-    <t>You have kids!!!</t>
-  </si>
-  <si>
-    <t>female_questions</t>
-  </si>
-  <si>
-    <t>Female Only Questions</t>
-  </si>
-  <si>
-    <t>reproductive_history</t>
-  </si>
-  <si>
-    <t>Reproductive History</t>
-  </si>
-  <si>
-    <t>basic demog</t>
-  </si>
-  <si>
-    <t>( data('sex') == 'female' ) &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
-  </si>
-  <si>
-    <t>(data('sex') == 'female') &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
+    <t>These questions refer to all your biological children who do not live with you.</t>
+  </si>
+  <si>
+    <t>Please list your children who were born alive, including those who have since died.</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>has children in children portion</t>
+  </si>
+  <si>
+    <t>parent_1 = ?</t>
+  </si>
+  <si>
+    <t>{ parent_1 : data('name'), parent_household_id : data('household_id') }</t>
+  </si>
+  <si>
+    <t>parent_1</t>
   </si>
 </sst>
 </file>
@@ -469,7 +533,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +592,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -686,7 +755,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -775,8 +844,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -879,8 +969,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="88" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -924,6 +1029,16 @@
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -967,8 +1082,19 @@
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Note" xfId="88" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,19 +1482,151 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" customHeight="1">
+    <row r="1" spans="1:9" s="46" customFormat="1">
+      <c r="A1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" ht="24">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="I9" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -1386,7 +1644,7 @@
       <c r="G1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="13" t="s">
@@ -1396,12 +1654,57 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24">
-      <c r="D2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="24">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1722,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1515,9 +1818,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42" customHeight="1">
+    <row r="7" spans="1:10" ht="62.5" customHeight="1">
       <c r="B7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
@@ -1937,7 +2240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2018,18 +2323,18 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2073,7 +2378,7 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
@@ -2160,49 +2465,62 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>126</v>
+      <c r="A14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +2968,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -2658,7 +2976,7 @@
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -2732,7 +3050,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="560" windowWidth="28340" windowHeight="15960" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20540" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
   <si>
     <t>type</t>
   </si>
@@ -469,9 +469,6 @@
     <t>do section reproductive_history</t>
   </si>
   <si>
-    <t>These questions refer to all your biological children who do not live with you.</t>
-  </si>
-  <si>
     <t>Please list your children who were born alive, including those who have since died.</t>
   </si>
   <si>
@@ -487,10 +484,22 @@
     <t>parent_1 = ?</t>
   </si>
   <si>
-    <t>{ parent_1 : data('name'), parent_household_id : data('household_id') }</t>
-  </si>
-  <si>
     <t>parent_1</t>
+  </si>
+  <si>
+    <t>parent_2</t>
+  </si>
+  <si>
+    <t>same_parents</t>
+  </si>
+  <si>
+    <t>The following questions refer to all your biological children who do not live with you.</t>
+  </si>
+  <si>
+    <t>If all of your children share the same parents, please write the other parents name here.</t>
+  </si>
+  <si>
+    <t>{ parent_1 : data('name'), parent_household_id : data('household_id'), parent_2 : data('parent_2') }</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -845,6 +854,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -985,7 +1014,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1039,6 +1068,16 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1092,6 +1131,16 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1485,7 +1534,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1558,13 +1607,13 @@
         <v>15</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>144</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I4" s="47" t="s">
         <v>143</v>
@@ -1610,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1672,43 +1721,65 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24">
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" t="s">
-        <v>134</v>
+      <c r="B5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2350,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2466,7 +2537,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2484,7 +2555,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2501,7 +2572,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2515,10 +2586,26 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
+      <c r="B24" s="37" t="s">
         <v>153</v>
       </c>
       <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2708,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
@@ -2933,9 +3020,7 @@
     </row>
     <row r="15" spans="1:10" ht="31" customHeight="1">
       <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
-        <v>113</v>
-      </c>
+      <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -2946,91 +3031,129 @@
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="31" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="31" customHeight="1">
-      <c r="B17" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="31" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="31" customHeight="1">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" ht="31" customHeight="1">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43" t="s">
+    <row r="24" spans="1:10" ht="31" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C24" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="31" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="31" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:10" ht="31" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43" t="s">
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="1:10" ht="31" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="25" spans="1:10" ht="31" customHeight="1">
-      <c r="B25" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="30" spans="1:10" ht="31" customHeight="1">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31" customHeight="1">
-      <c r="D26" s="15" t="s">
+    <row r="31" spans="1:10" ht="31" customHeight="1">
+      <c r="D31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31" customHeight="1">
-      <c r="B27" t="s">
+    <row r="32" spans="1:10" ht="31" customHeight="1">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
     </row>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20540" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="2700" yWindow="1700" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="basic_demog" sheetId="8" r:id="rId7"/>
     <sheet name="demog_continued" sheetId="9" r:id="rId8"/>
     <sheet name="female_questions" sheetId="10" r:id="rId9"/>
-    <sheet name="queries" sheetId="12" r:id="rId10"/>
-    <sheet name="reproductive_history" sheetId="13" r:id="rId11"/>
+    <sheet name="reproductive_history" sheetId="13" r:id="rId10"/>
+    <sheet name="queries" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
   <si>
     <t>type</t>
   </si>
@@ -127,9 +127,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>Household Members</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>linked_reproductive_history</t>
   </si>
   <si>
-    <t>Reproductive History:: BRANCHING TEST</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -460,12 +454,6 @@
     <t>openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>[ data('name') ]</t>
-  </si>
-  <si>
     <t>do section reproductive_history</t>
   </si>
   <si>
@@ -481,25 +469,22 @@
     <t>has children in children portion</t>
   </si>
   <si>
-    <t>parent_1 = ?</t>
-  </si>
-  <si>
-    <t>parent_1</t>
-  </si>
-  <si>
-    <t>parent_2</t>
-  </si>
-  <si>
-    <t>same_parents</t>
-  </si>
-  <si>
     <t>The following questions refer to all your biological children who do not live with you.</t>
   </si>
   <si>
-    <t>If all of your children share the same parents, please write the other parents name here.</t>
-  </si>
-  <si>
-    <t>{ parent_1 : data('name'), parent_household_id : data('household_id'), parent_2 : data('parent_2') }</t>
+    <t>{  }</t>
+  </si>
+  <si>
+    <t>{ parent_household_id : data('household_id'), parent_1 : data('name') }</t>
+  </si>
+  <si>
+    <t>parent_household_id = ?</t>
+  </si>
+  <si>
+    <t>[ data('household_id') ]</t>
+  </si>
+  <si>
+    <t>Household Member</t>
   </si>
 </sst>
 </file>
@@ -764,7 +749,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -854,6 +839,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1014,7 +1001,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1078,6 +1065,7 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1141,6 +1129,7 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1494,29 +1483,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1531,16 +1520,136 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="24">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
@@ -1551,31 +1660,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="46" customFormat="1">
       <c r="A1" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1595,28 +1704,28 @@
     </row>
     <row r="4" spans="1:9" ht="24">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="H4" s="47" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1649,137 +1758,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" spans="1:10" ht="24">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24">
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24">
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1810,13 +1788,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -1828,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>29</v>
@@ -1837,13 +1815,13 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1853,21 +1831,21 @@
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37" customHeight="1">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1880,23 +1858,23 @@
     </row>
     <row r="6" spans="1:10" ht="62.5" customHeight="1">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.5" customHeight="1">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
@@ -1992,13 +1970,13 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
@@ -2007,13 +1985,13 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
@@ -2022,13 +2000,13 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -2037,13 +2015,13 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -2052,13 +2030,13 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
@@ -2067,13 +2045,13 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
@@ -2082,13 +2060,13 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
@@ -2097,13 +2075,13 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -2112,13 +2090,13 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -2127,13 +2105,13 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
@@ -2142,13 +2120,13 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
@@ -2157,13 +2135,13 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -2172,13 +2150,13 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
@@ -2187,13 +2165,13 @@
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
@@ -2211,13 +2189,13 @@
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2226,13 +2204,13 @@
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -2241,13 +2219,13 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -2256,24 +2234,24 @@
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
@@ -2312,7 +2290,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2330,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
@@ -2346,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>20130408</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
@@ -2371,41 +2349,41 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2438,7 +2416,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2449,7 +2427,7 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
@@ -2460,7 +2438,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>2</v>
@@ -2468,7 +2446,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -2500,12 +2478,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2513,7 +2491,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2521,7 +2499,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2529,7 +2507,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -2537,17 +2515,17 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2555,15 +2533,15 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2572,42 +2550,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,10 +2632,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -2690,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>29</v>
@@ -2702,7 +2659,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2733,10 +2690,10 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2745,10 +2702,10 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2760,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2774,12 +2731,12 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2809,13 +2766,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -2827,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>25</v>
@@ -2841,7 +2798,7 @@
     </row>
     <row r="2" spans="1:10" ht="31" customHeight="1">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2850,16 +2807,16 @@
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1">
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -2871,10 +2828,10 @@
     <row r="5" spans="1:10" ht="25" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -2882,7 +2839,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="30"/>
       <c r="I5" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="33"/>
     </row>
@@ -2891,16 +2848,16 @@
       <c r="B6" s="40"/>
       <c r="C6" s="39"/>
       <c r="D6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>66</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
@@ -2909,7 +2866,7 @@
     <row r="7" spans="1:10" ht="31" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -2935,10 +2892,10 @@
     <row r="9" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -2957,10 +2914,10 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -2969,7 +2926,7 @@
     <row r="11" spans="1:10" ht="31" customHeight="1">
       <c r="A11" s="42"/>
       <c r="B11" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -2983,10 +2940,10 @@
     <row r="13" spans="1:10" ht="31" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -2994,7 +2951,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J13" s="42"/>
     </row>
@@ -3009,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>122</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
@@ -3057,7 +3014,7 @@
     <row r="18" spans="1:10" ht="31" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -3082,16 +3039,16 @@
     </row>
     <row r="20" spans="1:10" ht="31" customHeight="1">
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
@@ -3099,7 +3056,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="43"/>
     </row>
@@ -3112,10 +3069,10 @@
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -3124,7 +3081,7 @@
     <row r="26" spans="1:10" ht="31" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -3137,24 +3094,24 @@
     </row>
     <row r="30" spans="1:10" ht="31" customHeight="1">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31" customHeight="1">
       <c r="D31" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="31" customHeight="1">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3184,13 +3141,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -3202,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>29</v>
@@ -3211,23 +3168,23 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36">
@@ -3235,20 +3192,20 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="56" customHeight="1">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1700" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="32660" yWindow="-440" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -16,8 +16,7 @@
     <sheet name="basic_demog" sheetId="8" r:id="rId7"/>
     <sheet name="demog_continued" sheetId="9" r:id="rId8"/>
     <sheet name="female_questions" sheetId="10" r:id="rId9"/>
-    <sheet name="reproductive_history" sheetId="13" r:id="rId10"/>
-    <sheet name="queries" sheetId="12" r:id="rId11"/>
+    <sheet name="queries" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -370,9 +369,6 @@
     <t>end if</t>
   </si>
   <si>
-    <t>data('age') &gt;=18</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -397,9 +393,6 @@
     <t>Does {{data:first_name}} have any children?</t>
   </si>
   <si>
-    <t>data('has_children') == 'yes'</t>
-  </si>
-  <si>
     <t>female_questions</t>
   </si>
   <si>
@@ -421,15 +414,6 @@
     <t>(data('sex') == 'female') &amp;&amp; ( data('relation_to_head') != 'son_daughter' )</t>
   </si>
   <si>
-    <t>Start with the first born.</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>linked_reproductive_history</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -454,37 +438,22 @@
     <t>openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
-    <t>do section reproductive_history</t>
-  </si>
-  <si>
-    <t>Please list your children who were born alive, including those who have since died.</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>has children in children portion</t>
-  </si>
-  <si>
-    <t>The following questions refer to all your biological children who do not live with you.</t>
-  </si>
-  <si>
-    <t>{  }</t>
-  </si>
-  <si>
-    <t>{ parent_household_id : data('household_id'), parent_1 : data('name') }</t>
-  </si>
-  <si>
-    <t>parent_household_id = ?</t>
-  </si>
-  <si>
-    <t>[ data('household_id') ]</t>
-  </si>
-  <si>
     <t>Household Member</t>
+  </si>
+  <si>
+    <t>data('age') &gt;=16</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 16</t>
+  </si>
+  <si>
+    <t>lives in household?</t>
+  </si>
+  <si>
+    <t>lives_in_household</t>
   </si>
 </sst>
 </file>
@@ -749,7 +718,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,8 +850,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,12 +969,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="88" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1066,6 +1038,8 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1130,6 +1104,8 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1520,130 +1496,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" spans="1:10" ht="24">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24">
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1663,28 +1519,28 @@
         <v>33</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="H1" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>135</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1702,31 +1558,11 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:9" ht="24">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>147</v>
-      </c>
+    <row r="4" spans="1:9">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9">
       <c r="G5" s="47"/>
@@ -1768,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1815,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
@@ -1856,27 +1692,8 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="62.5" customHeight="1">
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="62.5" customHeight="1">
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="6" spans="1:10" ht="62.5" customHeight="1"/>
+    <row r="7" spans="1:10" ht="62.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2349,7 +2166,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
@@ -2372,18 +2189,18 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2399,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2427,7 +2244,7 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
@@ -2514,13 +2331,16 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>145</v>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2533,7 +2353,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2550,21 +2370,35 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="37"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="47"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,7 +2456,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2752,15 +2586,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="D15:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2790,7 +2625,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>25</v>
@@ -2825,110 +2660,90 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:10" ht="34" customHeight="1">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="31" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="s">
+      <c r="C7" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="31" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" ht="31" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="40" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" ht="31" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" ht="31" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" ht="31" customHeight="1">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
       <c r="A11" s="42"/>
       <c r="B11" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="42"/>
+        <v>111</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
@@ -2937,64 +2752,72 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
     </row>
+    <row r="12" spans="1:10" ht="31" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
     <row r="13" spans="1:10" ht="31" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
-        <v>119</v>
-      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="1:10" ht="31" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="31" customHeight="1">
       <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="31" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>120</v>
+      </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -3013,9 +2836,7 @@
     </row>
     <row r="18" spans="1:10" ht="31" customHeight="1">
       <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>112</v>
-      </c>
+      <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
@@ -3026,91 +2847,117 @@
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="31" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="31" customHeight="1">
-      <c r="B20" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="31" customHeight="1">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" ht="31" customHeight="1">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="31" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" ht="31" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="31" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="43"/>
+        <v>111</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="I26" s="43" t="s">
+        <v>126</v>
+      </c>
       <c r="J26" s="43"/>
     </row>
-    <row r="30" spans="1:10" ht="31" customHeight="1">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="31" customHeight="1">
-      <c r="D31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>68</v>
-      </c>
+    <row r="27" spans="1:10" ht="31" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" ht="31" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="31" customHeight="1">
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="31" customHeight="1">
+      <c r="D33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="31" customHeight="1">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3130,7 +2977,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3168,7 +3015,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3181,10 +3028,10 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36">
@@ -3203,11 +3050,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="56" customHeight="1">
-      <c r="B14" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="24" hidden="1" customHeight="1"/>
+    <row r="10" spans="1:10" ht="24" hidden="1" customHeight="1"/>
+    <row r="11" spans="1:10" ht="24" hidden="1" customHeight="1"/>
+    <row r="12" spans="1:10" ht="24" hidden="1" customHeight="1"/>
+    <row r="13" spans="1:10" ht="24" hidden="1" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32660" yWindow="-440" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="7"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="140">
   <si>
     <t>type</t>
   </si>
@@ -397,12 +397,6 @@
   </si>
   <si>
     <t>Female Only Questions</t>
-  </si>
-  <si>
-    <t>reproductive_history</t>
-  </si>
-  <si>
-    <t>Reproductive History</t>
   </si>
   <si>
     <t>basic demog</t>
@@ -1519,28 +1513,28 @@
         <v>33</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2104,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2166,7 +2160,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
@@ -2193,14 +2187,6 @@
       </c>
       <c r="C9" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2230,7 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
@@ -2353,7 +2339,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2370,10 +2356,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -2588,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2672,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="30"/>
       <c r="I7" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" s="33"/>
     </row>
@@ -2798,7 +2784,7 @@
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15" s="42"/>
     </row>
@@ -2895,7 +2881,7 @@
         <v>111</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -2903,7 +2889,7 @@
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J26" s="43"/>
     </row>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="3620" yWindow="120" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -15,8 +15,7 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="basic_demog" sheetId="8" r:id="rId7"/>
     <sheet name="demog_continued" sheetId="9" r:id="rId8"/>
-    <sheet name="female_questions" sheetId="10" r:id="rId9"/>
-    <sheet name="queries" sheetId="12" r:id="rId10"/>
+    <sheet name="queries" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
   <si>
     <t>type</t>
   </si>
@@ -111,12 +110,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>ageIsOddOrEven</t>
-  </si>
-  <si>
-    <t>((data('age') % 2) == 1) ? "odd" : "even"</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -381,9 +374,6 @@
     <t>require</t>
   </si>
   <si>
-    <t>data('relation_to_head') != 'son_daughter'</t>
-  </si>
-  <si>
     <t>data('age') &gt;= 15</t>
   </si>
   <si>
@@ -444,10 +434,22 @@
     <t>data('age') &gt;= 16</t>
   </si>
   <si>
-    <t>lives in household?</t>
-  </si>
-  <si>
     <t>lives_in_household</t>
+  </si>
+  <si>
+    <t>assigned automatically</t>
+  </si>
+  <si>
+    <t>is_alive</t>
+  </si>
+  <si>
+    <t>Is this person alive?</t>
+  </si>
+  <si>
+    <t>"yes"</t>
+  </si>
+  <si>
+    <t>assigns default yes to is_alive</t>
   </si>
 </sst>
 </file>
@@ -490,7 +492,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +558,32 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -624,48 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -675,7 +659,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -689,30 +675,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,8 +821,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -868,9 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -879,7 +860,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -912,53 +892,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -966,8 +918,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1034,6 +1033,11 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1100,6 +1104,11 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1440,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1452,30 +1461,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
+      <c r="C1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1488,120 +1497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="40.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="46" customFormat="1">
-      <c r="A1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="I9" s="47"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1617,77 +1518,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="39" customHeight="1">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="37" customHeight="1">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="37" customHeight="1">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="62.5" customHeight="1"/>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="37" customHeight="1">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
     <row r="7" spans="1:10" ht="62.5" customHeight="1"/>
+    <row r="8" spans="1:10" ht="62.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1701,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1715,375 +1635,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>38</v>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="C23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="C24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2119,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
@@ -2148,7 +2048,7 @@
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2160,33 +2060,33 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2204,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2218,40 +2118,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2281,12 +2181,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2294,7 +2194,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2302,7 +2202,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2310,7 +2210,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -2318,7 +2218,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2326,12 +2226,12 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2339,15 +2239,15 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2356,35 +2256,43 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="37"/>
+      <c r="B24" s="27"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="47"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="49"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="49"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="49"/>
+      <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="49"/>
+      <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="49"/>
+      <c r="B31" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2402,7 +2310,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2420,12 +2328,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,125 +2343,210 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="C9:F9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="31" customHeight="1">
+      <c r="A1" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2572,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
@@ -2585,367 +2574,329 @@
     <col min="9" max="9" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="1:9" ht="31" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31" customHeight="1">
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="57" customHeight="1">
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1">
+      <c r="G1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="34" customHeight="1">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="40" t="s">
+    <row r="5" spans="1:9" ht="25" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="31" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="26" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="26" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" ht="31" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="31" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="13" spans="1:9" ht="31" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="31" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="40" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="31" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="31" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="31" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" ht="31" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="26" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" ht="31" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="31" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="31" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="31" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G27" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="31" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="31" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" ht="31" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="31" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" ht="31" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" ht="31" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" ht="31" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" ht="31" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" ht="31" customHeight="1">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="31" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" ht="31" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="1:10" ht="31" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="32" spans="1:10" ht="31" customHeight="1">
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="31" customHeight="1">
-      <c r="D33" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="31" customHeight="1">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="31" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2960,96 +2911,104 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24">
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="36">
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24" hidden="1" customHeight="1"/>
-    <row r="10" spans="1:10" ht="24" hidden="1" customHeight="1"/>
-    <row r="11" spans="1:10" ht="24" hidden="1" customHeight="1"/>
-    <row r="12" spans="1:10" ht="24" hidden="1" customHeight="1"/>
-    <row r="13" spans="1:10" ht="24" hidden="1" customHeight="1"/>
-    <row r="14" spans="1:10" ht="15" customHeight="1"/>
+    <row r="1" spans="1:9" s="33" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="120" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="1"/>
+    <workbookView minimized="1" xWindow="7920" yWindow="1920" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7920" yWindow="1920" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="3360" yWindow="2640" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>assigns default yes to is_alive</t>
+  </si>
+  <si>
+    <t>calculate</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -775,6 +778,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,7 +973,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1038,6 +1045,8 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1109,6 +1118,8 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1447,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1460,7 +1471,7 @@
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
@@ -1473,13 +1484,19 @@
       <c r="D1" s="39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24">
+    <row r="3" spans="1:9" ht="24">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1499,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1593,21 +1610,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="37" customHeight="1">
-      <c r="B5" t="s">
+    <row r="6" spans="1:10" ht="37" customHeight="1">
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="37" customHeight="1">
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="62.5" customHeight="1"/>
+    <row r="7" spans="1:10" ht="37" customHeight="1">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
     <row r="8" spans="1:10" ht="62.5" customHeight="1"/>
+    <row r="9" spans="1:10" ht="62.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2105,7 +2122,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2129,19 +2146,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -2149,52 +2161,52 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2202,7 +2214,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2210,74 +2222,79 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>136</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="27"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="34"/>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="27"/>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="36"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2640" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
+    <workbookView minimized="1" xWindow="7920" yWindow="1920" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
   <si>
     <t>type</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>assigns default yes to is_alive</t>
-  </si>
-  <si>
-    <t>calculate</t>
   </si>
 </sst>
 </file>
@@ -688,7 +685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,10 +775,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -973,7 +966,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1045,8 +1038,6 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1118,8 +1109,6 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1458,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1471,7 +1460,7 @@
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
@@ -1484,19 +1473,13 @@
       <c r="D1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24">
+    <row r="3" spans="1:4" ht="24">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1516,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1610,21 +1593,21 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:10" ht="37" customHeight="1">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
     <row r="6" spans="1:10" ht="37" customHeight="1">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="37" customHeight="1">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
+    <row r="7" spans="1:10" ht="62.5" customHeight="1"/>
     <row r="8" spans="1:10" ht="62.5" customHeight="1"/>
-    <row r="9" spans="1:10" ht="62.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2122,7 +2105,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2146,14 +2129,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B2" s="34"/>
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -2161,52 +2149,52 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>73</v>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2214,7 +2202,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2222,79 +2210,74 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>131</v>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="27"/>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="36"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2640" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="4880" yWindow="1860" windowWidth="25040" windowHeight="15500" tabRatio="745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>type</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>calculate</t>
+  </si>
+  <si>
+    <t>≠</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,6 +781,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -973,7 +1010,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1047,6 +1084,23 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1120,6 +1174,23 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1640,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2121,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2363,7 +2434,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2580,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0"/>
@@ -2802,7 +2873,7 @@
     <row r="15" spans="1:9" ht="31" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
